--- a/out/srh_distribution.xlsx
+++ b/out/srh_distribution.xlsx
@@ -1,70 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehshini/code/R/nhanes/out/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66569CB1-638D-594B-97AE-7B28ADED1AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23680" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(HSD010)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(HSD010)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(HSD010)3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(HSD010)4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(HSD010)5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes01_02w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes03_04w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes05_06w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes07_08w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes09_10w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes11_12w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes13_14w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes15_16w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhanes17_18w</t>
+    <t/>
+  </si>
+  <si>
+    <t>factor(HSD010)1</t>
+  </si>
+  <si>
+    <t>factor(HSD010)2</t>
+  </si>
+  <si>
+    <t>factor(HSD010)3</t>
+  </si>
+  <si>
+    <t>factor(HSD010)4</t>
+  </si>
+  <si>
+    <t>factor(HSD010)5</t>
+  </si>
+  <si>
+    <t>nhanes01_02w</t>
+  </si>
+  <si>
+    <t>nhanes03_04w</t>
+  </si>
+  <si>
+    <t>nhanes05_06w</t>
+  </si>
+  <si>
+    <t>nhanes07_08w</t>
+  </si>
+  <si>
+    <t>nhanes09_10w</t>
+  </si>
+  <si>
+    <t>nhanes11_12w</t>
+  </si>
+  <si>
+    <t>nhanes13_14w</t>
+  </si>
+  <si>
+    <t>nhanes15_16w</t>
+  </si>
+  <si>
+    <t>nhanes17_18w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +120,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -381,14 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,188 +439,260 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>4.21476464530825</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.5629503197634</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.4476673916668</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31.7154012493237</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.0592163939378</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>4.2147646453082501</v>
+      </c>
+      <c r="C2">
+        <v>19.562950319763399</v>
+      </c>
+      <c r="D2">
+        <v>34.447667391666798</v>
+      </c>
+      <c r="E2">
+        <v>31.715401249323701</v>
+      </c>
+      <c r="F2">
+        <v>10.059216393937801</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:D2)</f>
+        <v>58.22538235673845</v>
+      </c>
+      <c r="I2">
+        <f>SUM(E2,F2)</f>
+        <v>41.7746176432615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.60130932205126</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.4146079253365</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.2669418187577</v>
-      </c>
-      <c r="E3" t="n">
-        <v>28.9442909040128</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13.7728500298417</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>16.414607925336501</v>
+      </c>
+      <c r="D3">
+        <v>38.266941818757701</v>
+      </c>
+      <c r="E3">
+        <v>28.944290904012799</v>
+      </c>
+      <c r="F3">
+        <v>13.772850029841701</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="0">SUM(B3:D3)</f>
+        <v>57.282859066145463</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="1">SUM(E3,F3)</f>
+        <v>42.717140933854502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.7933325872126</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.2915532041434</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.3117643057171</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33.3065075786039</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4">
+        <v>2.7933325872125998</v>
+      </c>
+      <c r="C4">
+        <v>15.291553204143399</v>
+      </c>
+      <c r="D4">
+        <v>43.311764305717098</v>
+      </c>
+      <c r="E4">
+        <v>33.306507578603899</v>
+      </c>
+      <c r="F4">
         <v>5.29684232432305</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>61.396650097073099</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>38.603349902926951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.7082116512779</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13.3033612445142</v>
       </c>
-      <c r="D5" t="n">
-        <v>37.8171956069929</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34.5334234632561</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11.6378080339589</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>37.817195606992897</v>
+      </c>
+      <c r="E5">
+        <v>34.533423463256099</v>
+      </c>
+      <c r="F5">
+        <v>11.637808033958899</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>53.828768502784996</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>46.171231497214997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
-        <v>3.31471009529774</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>3.3147100952977402</v>
+      </c>
+      <c r="C6">
         <v>13.1436453280867</v>
       </c>
-      <c r="D6" t="n">
-        <v>39.7762374687089</v>
-      </c>
-      <c r="E6" t="n">
-        <v>31.3238887147433</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>39.776237468708899</v>
+      </c>
+      <c r="E6">
+        <v>31.323888714743301</v>
+      </c>
+      <c r="F6">
         <v>12.4415183931633</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>56.234592892093339</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>43.765407107906597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.99992645613775</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.2365064495813</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.0107376804148</v>
-      </c>
-      <c r="E7" t="n">
-        <v>34.9363289582798</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7">
+        <v>1.9999264561377501</v>
+      </c>
+      <c r="C7">
+        <v>12.236506449581301</v>
+      </c>
+      <c r="D7">
+        <v>42.010737680414799</v>
+      </c>
+      <c r="E7">
+        <v>34.936328958279802</v>
+      </c>
+      <c r="F7">
         <v>8.81650045558629</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>56.247170586133848</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>43.752829413866095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.936979876118841</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>0.93697987611884104</v>
+      </c>
+      <c r="C8">
         <v>17.6636955232395</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>40.7451877858066</v>
       </c>
-      <c r="E8" t="n">
-        <v>34.2633583286412</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.39077848619383</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>34.263358328641203</v>
+      </c>
+      <c r="F8">
+        <v>6.3907784861938302</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>59.345863185164944</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>40.654136814835034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.96426967644703</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>16.3511029194811</v>
       </c>
-      <c r="D9" t="n">
-        <v>43.7588017867181</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.8761015739452</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.0497240434086</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>43.758801786718102</v>
+      </c>
+      <c r="E9">
+        <v>29.876101573945199</v>
+      </c>
+      <c r="F9">
+        <v>8.0497240434086006</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>62.074174382646234</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>37.925825617353802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
-        <v>1.47917711152334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15.1976964818587</v>
-      </c>
-      <c r="D10" t="n">
-        <v>46.7404046004379</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="B10">
+        <v>1.4791771115233401</v>
+      </c>
+      <c r="C10">
+        <v>15.197696481858699</v>
+      </c>
+      <c r="D10">
+        <v>46.740404600437898</v>
+      </c>
+      <c r="E10">
         <v>31.054336677517</v>
       </c>
-      <c r="F10" t="n">
-        <v>5.52838512866315</v>
+      <c r="F10">
+        <v>5.5283851286631496</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>63.417278193819939</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>36.582721806180146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>